--- a/sites/URS_Certifications 28.08.25.xlsx
+++ b/sites/URS_Certifications 28.08.25.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2279D862-315B-42C0-A25C-1DCF7B3B42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96A3B737-86BA-43A0-AD66-F98EE6627362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{037F6C31-C108-4A89-9C11-FA46842909F6}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 28.08.25" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6228" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="729">
   <si>
     <t>Название компании</t>
   </si>
@@ -1167,7 +1162,13 @@
     <t>Филиал АО «РУСАЛ Урал» в Каменске-Уральском «Объединенная компания РУСАЛ Уральский алюминиевый завод»</t>
   </si>
   <si>
-    <t>ТОО «Урожай»</t>
+    <t>Урожай</t>
+  </si>
+  <si>
+    <t>ТОО</t>
+  </si>
+  <si>
+    <t>KZ846010321000010210</t>
   </si>
   <si>
     <t>Кропоткинский завод монтажных и специальных строительных приспособлений</t>
@@ -1285,9 +1286,6 @@
   </si>
   <si>
     <t>Norsec Delta Projects</t>
-  </si>
-  <si>
-    <t>ТОО</t>
   </si>
   <si>
     <t>ISO/IEC 27001:2022</t>
@@ -2214,7 +2212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3068,12 +3066,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1893CF8-FDC7-4D2C-898E-1259A16B0C9C}">
   <dimension ref="A1:G1377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -20032,33 +20035,51 @@
       <c r="A757" t="s">
         <v>380</v>
       </c>
+      <c r="B757" t="s">
+        <v>381</v>
+      </c>
+      <c r="C757" t="s">
+        <v>382</v>
+      </c>
+      <c r="D757" t="s">
+        <v>9</v>
+      </c>
       <c r="E757" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="F757" t="s">
         <v>328</v>
       </c>
       <c r="G757" s="1">
-        <v>45926</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>380</v>
       </c>
+      <c r="B758" t="s">
+        <v>381</v>
+      </c>
+      <c r="C758" t="s">
+        <v>382</v>
+      </c>
+      <c r="D758" t="s">
+        <v>9</v>
+      </c>
       <c r="E758" t="s">
-        <v>353</v>
+        <v>10</v>
       </c>
       <c r="F758" t="s">
         <v>328</v>
       </c>
       <c r="G758" s="1">
-        <v>45935</v>
+        <v>45926</v>
       </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B759" t="s">
         <v>83</v>
@@ -20081,7 +20102,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E760" t="s">
         <v>10</v>
@@ -20095,7 +20116,7 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E761" t="s">
         <v>16</v>
@@ -20109,7 +20130,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E762" t="s">
         <v>26</v>
@@ -20123,7 +20144,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E763" t="s">
         <v>10</v>
@@ -20137,7 +20158,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E764" t="s">
         <v>16</v>
@@ -20151,7 +20172,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E765" t="s">
         <v>26</v>
@@ -20165,7 +20186,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E766" t="s">
         <v>10</v>
@@ -20179,7 +20200,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E767" t="s">
         <v>16</v>
@@ -20193,7 +20214,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E768" t="s">
         <v>26</v>
@@ -20207,7 +20228,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B769" t="s">
         <v>24</v>
@@ -20230,7 +20251,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B770" t="s">
         <v>24</v>
@@ -20253,7 +20274,7 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E771" t="s">
         <v>353</v>
@@ -20262,12 +20283,12 @@
         <v>328</v>
       </c>
       <c r="G771" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E772" t="s">
         <v>10</v>
@@ -20281,7 +20302,7 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E773" t="s">
         <v>10</v>
@@ -20295,7 +20316,7 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E774" t="s">
         <v>26</v>
@@ -20309,13 +20330,13 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E775" t="s">
         <v>10</v>
       </c>
       <c r="F775" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G775">
         <v>46253</v>
@@ -20323,13 +20344,13 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E776" t="s">
         <v>16</v>
       </c>
       <c r="F776" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G776">
         <v>46253</v>
@@ -20337,13 +20358,13 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E777" t="s">
         <v>26</v>
       </c>
       <c r="F777" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G777">
         <v>46253</v>
@@ -20351,7 +20372,7 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E778" t="s">
         <v>353</v>
@@ -20365,7 +20386,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E779" t="s">
         <v>10</v>
@@ -20379,7 +20400,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E780" t="s">
         <v>16</v>
@@ -20393,7 +20414,7 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E781" t="s">
         <v>26</v>
@@ -20407,7 +20428,7 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E782" t="s">
         <v>10</v>
@@ -20421,7 +20442,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E783" t="s">
         <v>10</v>
@@ -20435,12 +20456,12 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E785" t="s">
         <v>10</v>
@@ -20454,12 +20475,12 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E787" t="s">
         <v>16</v>
@@ -20473,12 +20494,12 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E789" t="s">
         <v>26</v>
@@ -20492,7 +20513,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B790" t="s">
         <v>24</v>
@@ -20515,7 +20536,7 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B791" t="s">
         <v>24</v>
@@ -20538,13 +20559,13 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E792" t="s">
         <v>10</v>
       </c>
       <c r="F792" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G792" s="1">
         <v>44909</v>
@@ -20552,7 +20573,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B793" t="s">
         <v>44</v>
@@ -20575,7 +20596,7 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B794" t="s">
         <v>8</v>
@@ -20598,7 +20619,7 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E795" t="s">
         <v>10</v>
@@ -20607,12 +20628,12 @@
         <v>328</v>
       </c>
       <c r="G795" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E796" t="s">
         <v>10</v>
@@ -20626,7 +20647,7 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E797" t="s">
         <v>16</v>
@@ -20640,7 +20661,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E798" t="s">
         <v>26</v>
@@ -20654,7 +20675,7 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B799" t="s">
         <v>24</v>
@@ -20677,13 +20698,13 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E800" t="s">
         <v>10</v>
       </c>
       <c r="F800" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G800">
         <v>45993</v>
@@ -20691,13 +20712,13 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E801" t="s">
         <v>16</v>
       </c>
       <c r="F801" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G801">
         <v>45993</v>
@@ -20705,13 +20726,13 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E802" t="s">
         <v>26</v>
       </c>
       <c r="F802" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G802">
         <v>45995</v>
@@ -20719,7 +20740,7 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E803" t="s">
         <v>10</v>
@@ -20733,7 +20754,7 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E804" t="s">
         <v>16</v>
@@ -20747,7 +20768,7 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E805" t="s">
         <v>26</v>
@@ -20761,7 +20782,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E806" t="s">
         <v>88</v>
@@ -20775,7 +20796,7 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E807" t="s">
         <v>88</v>
@@ -20789,7 +20810,7 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D808" t="s">
         <v>9</v>
@@ -20806,7 +20827,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E809" t="s">
         <v>88</v>
@@ -20820,7 +20841,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E810" t="s">
         <v>88</v>
@@ -20834,13 +20855,13 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E811" t="s">
         <v>10</v>
       </c>
       <c r="F811" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G811" s="1">
         <v>45888</v>
@@ -20848,7 +20869,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B812" t="s">
         <v>83</v>
@@ -20871,7 +20892,7 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B813" t="s">
         <v>24</v>
@@ -20894,7 +20915,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B814" t="s">
         <v>24</v>
@@ -20917,7 +20938,7 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B815" t="s">
         <v>24</v>
@@ -20940,7 +20961,7 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B816" t="s">
         <v>24</v>
@@ -20963,7 +20984,7 @@
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B817" t="s">
         <v>28</v>
@@ -20997,7 +21018,7 @@
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E819" t="s">
         <v>10</v>
@@ -21011,7 +21032,7 @@
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E820" t="s">
         <v>10</v>
@@ -21025,7 +21046,7 @@
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E821" t="s">
         <v>16</v>
@@ -21039,7 +21060,7 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E822" t="s">
         <v>26</v>
@@ -21117,13 +21138,13 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B828" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="E828" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F828" t="s">
         <v>328</v>
@@ -21134,13 +21155,13 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B829" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="E829" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F829" t="s">
         <v>328</v>
@@ -21151,7 +21172,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B830" t="s">
         <v>8</v>
@@ -21174,7 +21195,7 @@
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B831" t="s">
         <v>24</v>
@@ -21197,7 +21218,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B832" t="s">
         <v>24</v>
@@ -21220,7 +21241,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B833" t="s">
         <v>24</v>
@@ -21243,7 +21264,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B834" t="s">
         <v>24</v>
@@ -21266,7 +21287,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E835" t="s">
         <v>16</v>
@@ -21280,7 +21301,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E836" t="s">
         <v>26</v>
@@ -21294,7 +21315,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B837" t="s">
         <v>8</v>
@@ -21317,7 +21338,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B838" t="s">
         <v>8</v>
@@ -21340,7 +21361,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B839" t="s">
         <v>8</v>
@@ -21363,7 +21384,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B840" t="s">
         <v>8</v>
@@ -21386,7 +21407,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B841" t="s">
         <v>8</v>
@@ -21409,7 +21430,7 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B842" t="s">
         <v>24</v>
@@ -21432,7 +21453,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B843" t="s">
         <v>24</v>
@@ -21455,7 +21476,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B844" t="s">
         <v>24</v>
@@ -21478,7 +21499,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E845" t="s">
         <v>10</v>
@@ -21492,7 +21513,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B846" t="s">
         <v>24</v>
@@ -21515,7 +21536,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B847" t="s">
         <v>24</v>
@@ -21538,7 +21559,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B848" t="s">
         <v>24</v>
@@ -21561,7 +21582,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B849" t="s">
         <v>24</v>
@@ -21584,7 +21605,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C850">
         <v>700010977</v>
@@ -21604,7 +21625,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B851" t="s">
         <v>24</v>
@@ -21627,7 +21648,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B852" t="s">
         <v>24</v>
@@ -21650,7 +21671,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B853" t="s">
         <v>24</v>
@@ -21673,10 +21694,10 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B854" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C854">
         <v>3904014891</v>
@@ -21718,7 +21739,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B857" t="s">
         <v>83</v>
@@ -21741,7 +21762,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E858" t="s">
         <v>10</v>
@@ -21755,7 +21776,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E859" t="s">
         <v>10</v>
@@ -21769,7 +21790,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B860" t="s">
         <v>24</v>
@@ -21792,7 +21813,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B861" t="s">
         <v>44</v>
@@ -21815,7 +21836,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B862" t="s">
         <v>44</v>
@@ -21838,7 +21859,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B863" t="s">
         <v>44</v>
@@ -21861,13 +21882,13 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D864" t="s">
         <v>9</v>
       </c>
       <c r="E864" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F864" t="s">
         <v>328</v>
@@ -21878,7 +21899,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B865" t="s">
         <v>8</v>
@@ -21901,7 +21922,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B866" t="s">
         <v>8</v>
@@ -21924,7 +21945,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B867" t="s">
         <v>8</v>
@@ -21947,7 +21968,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B868" t="s">
         <v>8</v>
@@ -21970,13 +21991,13 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E869" t="s">
         <v>10</v>
       </c>
       <c r="F869" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G869" s="1">
         <v>46153</v>
@@ -21984,13 +22005,13 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E870" t="s">
         <v>68</v>
       </c>
       <c r="F870" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G870" s="1">
         <v>45960</v>
@@ -21998,7 +22019,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B871" t="s">
         <v>83</v>
@@ -22021,7 +22042,7 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B872" t="s">
         <v>83</v>
@@ -22044,7 +22065,7 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B873" t="s">
         <v>24</v>
@@ -22067,7 +22088,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B874" t="s">
         <v>24</v>
@@ -22090,7 +22111,7 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B875" t="s">
         <v>24</v>
@@ -22113,7 +22134,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B876" t="s">
         <v>24</v>
@@ -22136,7 +22157,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B877" t="s">
         <v>24</v>
@@ -22148,7 +22169,7 @@
         <v>14</v>
       </c>
       <c r="E877" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F877" t="s">
         <v>11</v>
@@ -22159,7 +22180,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E878" t="s">
         <v>10</v>
@@ -22173,7 +22194,7 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E879" t="s">
         <v>16</v>
@@ -22187,7 +22208,7 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E880" t="s">
         <v>26</v>
@@ -22201,7 +22222,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B881" t="s">
         <v>24</v>
@@ -22224,7 +22245,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B882" t="s">
         <v>24</v>
@@ -22247,7 +22268,7 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B883" t="s">
         <v>24</v>
@@ -22270,10 +22291,10 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B884" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C884">
         <v>101498057</v>
@@ -22293,12 +22314,12 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B886" t="s">
         <v>24</v>
@@ -22321,7 +22342,7 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B887" t="s">
         <v>24</v>
@@ -22344,7 +22365,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B888" t="s">
         <v>8</v>
@@ -22367,7 +22388,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B889" t="s">
         <v>24</v>
@@ -22390,7 +22411,7 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B890" t="s">
         <v>8</v>
@@ -22413,7 +22434,7 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B891" t="s">
         <v>8</v>
@@ -22436,7 +22457,7 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B892" t="s">
         <v>24</v>
@@ -22459,7 +22480,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B893" t="s">
         <v>24</v>
@@ -22482,7 +22503,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B894" t="s">
         <v>24</v>
@@ -22637,10 +22658,10 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B907" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C907">
         <v>7809022120</v>
@@ -22660,10 +22681,10 @@
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B908" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C908">
         <v>7809022120</v>
@@ -22716,7 +22737,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E912" t="s">
         <v>10</v>
@@ -22730,7 +22751,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B913" t="s">
         <v>8</v>
@@ -22764,7 +22785,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B915" t="s">
         <v>24</v>
@@ -22787,7 +22808,7 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B916" t="s">
         <v>24</v>
@@ -22799,7 +22820,7 @@
         <v>59</v>
       </c>
       <c r="E916" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F916" t="s">
         <v>11</v>
@@ -22810,7 +22831,7 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B917" t="s">
         <v>24</v>
@@ -22833,7 +22854,7 @@
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B918" t="s">
         <v>24</v>
@@ -22856,7 +22877,7 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B919" t="s">
         <v>24</v>
@@ -22879,7 +22900,7 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E920" t="s">
         <v>10</v>
@@ -22893,7 +22914,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D921" t="s">
         <v>9</v>
@@ -22910,7 +22931,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E922" t="s">
         <v>88</v>
@@ -22924,7 +22945,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E923" t="s">
         <v>88</v>
@@ -22935,7 +22956,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E924" t="s">
         <v>68</v>
@@ -22949,10 +22970,10 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E925" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F925" t="s">
         <v>328</v>
@@ -22963,7 +22984,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E926" t="s">
         <v>10</v>
@@ -22977,7 +22998,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B927" t="s">
         <v>24</v>
@@ -23000,7 +23021,7 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B928" t="s">
         <v>24</v>
@@ -23023,7 +23044,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B929" t="s">
         <v>8</v>
@@ -23046,7 +23067,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B930" t="s">
         <v>8</v>
@@ -23069,7 +23090,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B931" t="s">
         <v>8</v>
@@ -23092,7 +23113,7 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B932" t="s">
         <v>8</v>
@@ -23115,7 +23136,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B933" t="s">
         <v>8</v>
@@ -23138,7 +23159,7 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E934" t="s">
         <v>10</v>
@@ -23152,7 +23173,7 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E935" t="s">
         <v>16</v>
@@ -23166,7 +23187,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E936" t="s">
         <v>26</v>
@@ -23180,7 +23201,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D937" t="s">
         <v>59</v>
@@ -23197,7 +23218,7 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E938" t="s">
         <v>50</v>
@@ -23211,7 +23232,7 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E939" t="s">
         <v>329</v>
@@ -23225,7 +23246,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B940" t="s">
         <v>8</v>
@@ -23281,7 +23302,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B944" t="s">
         <v>24</v>
@@ -23315,7 +23336,7 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B946" t="s">
         <v>24</v>
@@ -23338,7 +23359,7 @@
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B947" t="s">
         <v>24</v>
@@ -23361,7 +23382,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B948" t="s">
         <v>24</v>
@@ -23384,7 +23405,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B949" t="s">
         <v>24</v>
@@ -23407,7 +23428,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B950" t="s">
         <v>24</v>
@@ -23430,7 +23451,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B951" t="s">
         <v>24</v>
@@ -23486,7 +23507,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B955" t="s">
         <v>24</v>
@@ -23509,7 +23530,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B956" t="s">
         <v>24</v>
@@ -23532,7 +23553,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B957" t="s">
         <v>24</v>
@@ -23555,7 +23576,7 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B958" t="s">
         <v>24</v>
@@ -23578,7 +23599,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B959" t="s">
         <v>24</v>
@@ -23601,7 +23622,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B960" t="s">
         <v>24</v>
@@ -23624,7 +23645,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B961" t="s">
         <v>24</v>
@@ -23647,7 +23668,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B962" t="s">
         <v>24</v>
@@ -23670,15 +23691,15 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B965" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C965">
         <v>7729050901</v>
@@ -23698,7 +23719,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B966" t="s">
         <v>24</v>
@@ -23721,7 +23742,7 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B967" t="s">
         <v>24</v>
@@ -23744,7 +23765,7 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B968" t="s">
         <v>24</v>
@@ -23767,7 +23788,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E969" t="s">
         <v>10</v>
@@ -23781,7 +23802,7 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E970" t="s">
         <v>353</v>
@@ -23795,7 +23816,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E971" t="s">
         <v>68</v>
@@ -23809,7 +23830,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E972" t="s">
         <v>329</v>
@@ -23823,7 +23844,7 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E973" t="s">
         <v>10</v>
@@ -23837,7 +23858,7 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E974" t="s">
         <v>16</v>
@@ -23851,7 +23872,7 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E975" t="s">
         <v>26</v>
@@ -23865,7 +23886,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B976" t="s">
         <v>24</v>
@@ -23888,7 +23909,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B977" t="s">
         <v>24</v>
@@ -23911,7 +23932,7 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B978" t="s">
         <v>24</v>
@@ -23934,7 +23955,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B979" t="s">
         <v>24</v>
@@ -23957,13 +23978,13 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E980" t="s">
         <v>10</v>
       </c>
       <c r="F980" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G980" s="1">
         <v>46277</v>
@@ -23971,7 +23992,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E981" t="s">
         <v>10</v>
@@ -23985,7 +24006,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B982" t="s">
         <v>24</v>
@@ -24008,7 +24029,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B983" t="s">
         <v>24</v>
@@ -24031,7 +24052,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B984" t="s">
         <v>24</v>
@@ -24054,7 +24075,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B985" t="s">
         <v>24</v>
@@ -24077,7 +24098,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B986" t="s">
         <v>24</v>
@@ -24100,7 +24121,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E987" t="s">
         <v>52</v>
@@ -24114,7 +24135,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B988" t="s">
         <v>8</v>
@@ -24137,7 +24158,7 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B989" t="s">
         <v>8</v>
@@ -24160,7 +24181,7 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B990" t="s">
         <v>8</v>
@@ -24183,7 +24204,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B991" t="s">
         <v>24</v>
@@ -24206,7 +24227,7 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D992" t="s">
         <v>9</v>
@@ -24215,7 +24236,7 @@
         <v>10</v>
       </c>
       <c r="F992" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G992" s="1">
         <v>46651</v>
@@ -24223,7 +24244,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D993" t="s">
         <v>9</v>
@@ -24232,7 +24253,7 @@
         <v>16</v>
       </c>
       <c r="F993" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G993" s="1">
         <v>46265</v>
@@ -24240,7 +24261,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D994" t="s">
         <v>9</v>
@@ -24249,7 +24270,7 @@
         <v>50</v>
       </c>
       <c r="F994" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G994" s="1">
         <v>46768</v>
@@ -24257,7 +24278,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B995" t="s">
         <v>24</v>
@@ -24280,7 +24301,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E996" t="s">
         <v>353</v>
@@ -24294,7 +24315,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E997" t="s">
         <v>10</v>
@@ -24308,7 +24329,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E998" t="s">
         <v>16</v>
@@ -24322,7 +24343,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E999" t="s">
         <v>26</v>
@@ -24336,7 +24357,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1000" t="s">
         <v>24</v>
@@ -24359,7 +24380,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1001" t="s">
         <v>24</v>
@@ -24382,7 +24403,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1002" t="s">
         <v>24</v>
@@ -24405,7 +24426,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B1003" t="s">
         <v>8</v>
@@ -24428,7 +24449,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1004" t="s">
         <v>24</v>
@@ -24451,7 +24472,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1005" t="s">
         <v>24</v>
@@ -24474,7 +24495,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B1006" t="s">
         <v>24</v>
@@ -24497,7 +24518,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B1007" t="s">
         <v>24</v>
@@ -24520,7 +24541,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1008" t="s">
         <v>10</v>
@@ -24534,7 +24555,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B1009" t="s">
         <v>24</v>
@@ -24557,7 +24578,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B1010" t="s">
         <v>28</v>
@@ -24580,7 +24601,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E1011" t="s">
         <v>10</v>
@@ -24594,7 +24615,7 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E1012" t="s">
         <v>353</v>
@@ -24630,7 +24651,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1015" t="s">
         <v>24</v>
@@ -24653,7 +24674,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1016" t="s">
         <v>24</v>
@@ -24676,7 +24697,7 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1017" t="s">
         <v>24</v>
@@ -24699,7 +24720,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1018" t="s">
         <v>24</v>
@@ -24722,7 +24743,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B1019" t="s">
         <v>24</v>
@@ -24778,7 +24799,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B1023" t="s">
         <v>8</v>
@@ -24801,7 +24822,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B1024" t="s">
         <v>8</v>
@@ -24824,7 +24845,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B1025" t="s">
         <v>8</v>
@@ -24847,7 +24868,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E1026" t="s">
         <v>10</v>
@@ -24861,7 +24882,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E1027" t="s">
         <v>10</v>
@@ -24875,7 +24896,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B1028" t="s">
         <v>24</v>
@@ -24898,7 +24919,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B1029" t="s">
         <v>24</v>
@@ -24921,7 +24942,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B1030" t="s">
         <v>24</v>
@@ -24955,7 +24976,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B1032" t="s">
         <v>24</v>
@@ -24978,7 +24999,7 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B1033" t="s">
         <v>24</v>
@@ -25001,7 +25022,7 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B1034" t="s">
         <v>24</v>
@@ -25024,7 +25045,7 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B1035" t="s">
         <v>24</v>
@@ -25047,7 +25068,7 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B1036" t="s">
         <v>24</v>
@@ -25070,7 +25091,7 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B1037" t="s">
         <v>24</v>
@@ -25093,10 +25114,10 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1038" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1038">
         <v>3900005663</v>
@@ -25116,10 +25137,10 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1039" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1039">
         <v>3900005663</v>
@@ -25139,10 +25160,10 @@
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1040" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1040">
         <v>3900005663</v>
@@ -25162,10 +25183,10 @@
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1041" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1041">
         <v>3900005663</v>
@@ -25174,7 +25195,7 @@
         <v>14</v>
       </c>
       <c r="E1041" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F1041" t="s">
         <v>11</v>
@@ -25185,10 +25206,10 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1042" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1042">
         <v>3900005663</v>
@@ -25208,10 +25229,10 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1043" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1043">
         <v>3900005663</v>
@@ -25231,10 +25252,10 @@
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B1044" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C1044">
         <v>3900005663</v>
@@ -25254,10 +25275,10 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E1045" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1045" t="s">
         <v>328</v>
@@ -25268,10 +25289,10 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E1046" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1046" t="s">
         <v>328</v>
@@ -25282,7 +25303,7 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E1047" t="s">
         <v>10</v>
@@ -25296,7 +25317,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E1048" t="s">
         <v>16</v>
@@ -25310,7 +25331,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E1049" t="s">
         <v>26</v>
@@ -25324,7 +25345,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B1050" t="s">
         <v>24</v>
@@ -25347,7 +25368,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E1051" t="s">
         <v>10</v>
@@ -25361,7 +25382,7 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E1052" t="s">
         <v>353</v>
@@ -25375,7 +25396,7 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1053" t="s">
         <v>8</v>
@@ -25398,7 +25419,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1054" t="s">
         <v>8</v>
@@ -25421,7 +25442,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1055" t="s">
         <v>8</v>
@@ -25444,7 +25465,7 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1056" t="s">
         <v>8</v>
@@ -25500,7 +25521,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B1060" t="s">
         <v>24</v>
@@ -25523,10 +25544,10 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E1061" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1061" t="s">
         <v>328</v>
@@ -25537,10 +25558,10 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E1062" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1062" t="s">
         <v>351</v>
@@ -25551,7 +25572,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E1063" t="s">
         <v>10</v>
@@ -25565,7 +25586,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E1064" t="s">
         <v>16</v>
@@ -25579,7 +25600,7 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E1065" t="s">
         <v>26</v>
@@ -25593,7 +25614,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B1066" t="s">
         <v>24</v>
@@ -25616,7 +25637,7 @@
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E1067" t="s">
         <v>10</v>
@@ -25630,7 +25651,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1068" t="s">
         <v>24</v>
@@ -25653,7 +25674,7 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1069" t="s">
         <v>24</v>
@@ -25676,7 +25697,7 @@
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1070" t="s">
         <v>24</v>
@@ -25699,7 +25720,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1071" t="s">
         <v>24</v>
@@ -25722,7 +25743,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1072" t="s">
         <v>24</v>
@@ -25745,7 +25766,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B1073" t="s">
         <v>24</v>
@@ -25768,7 +25789,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E1074" t="s">
         <v>10</v>
@@ -25815,7 +25836,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1078" t="s">
         <v>24</v>
@@ -25838,7 +25859,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1079" t="s">
         <v>24</v>
@@ -25861,7 +25882,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1080" t="s">
         <v>24</v>
@@ -25884,7 +25905,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B1081" t="s">
         <v>24</v>
@@ -25907,7 +25928,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B1082" t="s">
         <v>24</v>
@@ -25919,7 +25940,7 @@
         <v>59</v>
       </c>
       <c r="E1082" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F1082" t="s">
         <v>11</v>
@@ -25930,7 +25951,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B1083" t="s">
         <v>24</v>
@@ -25942,7 +25963,7 @@
         <v>14</v>
       </c>
       <c r="E1083" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F1083" t="s">
         <v>11</v>
@@ -25953,7 +25974,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1084" t="s">
         <v>24</v>
@@ -25976,7 +25997,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B1085" t="s">
         <v>24</v>
@@ -25999,7 +26020,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B1086" t="s">
         <v>24</v>
@@ -26022,7 +26043,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B1087" t="s">
         <v>24</v>
@@ -26045,7 +26066,7 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B1088" t="s">
         <v>24</v>
@@ -26068,7 +26089,7 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B1089" t="s">
         <v>24</v>
@@ -26080,7 +26101,7 @@
         <v>9</v>
       </c>
       <c r="E1089" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1089" t="s">
         <v>11</v>
@@ -26091,7 +26112,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E1090" t="s">
         <v>10</v>
@@ -26105,7 +26126,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B1091" t="s">
         <v>24</v>
@@ -26128,7 +26149,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B1092" t="s">
         <v>24</v>
@@ -26184,7 +26205,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -26201,7 +26222,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D1097" t="s">
         <v>9</v>
@@ -26218,13 +26239,13 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D1098" t="s">
         <v>9</v>
       </c>
       <c r="E1098" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1098" t="s">
         <v>351</v>
@@ -26235,7 +26256,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D1099" t="s">
         <v>9</v>
@@ -26252,7 +26273,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D1100" t="s">
         <v>9</v>
@@ -26269,7 +26290,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D1101" t="s">
         <v>9</v>
@@ -26286,7 +26307,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B1102" t="s">
         <v>24</v>
@@ -26320,7 +26341,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B1104" t="s">
         <v>377</v>
@@ -26343,7 +26364,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B1105" t="s">
         <v>8</v>
@@ -26366,7 +26387,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B1106" t="s">
         <v>8</v>
@@ -26389,7 +26410,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E1107" t="s">
         <v>10</v>
@@ -26403,7 +26424,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E1108" t="s">
         <v>16</v>
@@ -26450,7 +26471,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B1112" t="s">
         <v>28</v>
@@ -26473,10 +26494,10 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E1113" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1113" t="s">
         <v>328</v>
@@ -26487,7 +26508,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D1114" t="s">
         <v>9</v>
@@ -26496,7 +26517,7 @@
         <v>10</v>
       </c>
       <c r="F1114" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1114" s="1">
         <v>46784</v>
@@ -26504,7 +26525,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B1115" t="s">
         <v>24</v>
@@ -26516,7 +26537,7 @@
         <v>14</v>
       </c>
       <c r="E1115" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F1115" t="s">
         <v>11</v>
@@ -26524,7 +26545,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B1116" t="s">
         <v>24</v>
@@ -26547,7 +26568,7 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B1117" t="s">
         <v>24</v>
@@ -26570,7 +26591,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B1118" t="s">
         <v>24</v>
@@ -26593,7 +26614,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B1119" t="s">
         <v>24</v>
@@ -26616,7 +26637,7 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B1120" t="s">
         <v>44</v>
@@ -26639,7 +26660,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B1121" t="s">
         <v>44</v>
@@ -26662,7 +26683,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1122" t="s">
         <v>8</v>
@@ -26685,7 +26706,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B1123" t="s">
         <v>8</v>
@@ -26708,7 +26729,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B1124" t="s">
         <v>8</v>
@@ -26731,7 +26752,7 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B1125" t="s">
         <v>8</v>
@@ -26754,7 +26775,7 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B1126" t="s">
         <v>8</v>
@@ -26777,7 +26798,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B1127" t="s">
         <v>8</v>
@@ -26800,7 +26821,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B1128" t="s">
         <v>44</v>
@@ -26823,7 +26844,7 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B1129" t="s">
         <v>44</v>
@@ -26846,7 +26867,7 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E1130" t="s">
         <v>10</v>
@@ -26860,7 +26881,7 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E1131" t="s">
         <v>16</v>
@@ -26874,7 +26895,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E1132" t="s">
         <v>26</v>
@@ -26888,7 +26909,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E1133" t="s">
         <v>10</v>
@@ -26902,7 +26923,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E1134" t="s">
         <v>16</v>
@@ -26916,7 +26937,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E1135" t="s">
         <v>26</v>
@@ -26930,13 +26951,13 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E1136" t="s">
         <v>10</v>
       </c>
       <c r="F1136" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1136" s="1">
         <v>46788</v>
@@ -26944,7 +26965,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C1137">
         <v>7722384856</v>
@@ -26961,13 +26982,13 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E1138" t="s">
         <v>10</v>
       </c>
       <c r="F1138" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1138" s="1">
         <v>46452</v>
@@ -26975,13 +26996,13 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E1139" t="s">
         <v>26</v>
       </c>
       <c r="F1139" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1139" s="1">
         <v>46452</v>
@@ -26989,7 +27010,7 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E1140" t="s">
         <v>10</v>
@@ -27003,7 +27024,7 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E1141" t="s">
         <v>52</v>
@@ -27017,7 +27038,7 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E1142" t="s">
         <v>10</v>
@@ -27031,7 +27052,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E1143" t="s">
         <v>10</v>
@@ -27045,10 +27066,10 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E1144" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1144" t="s">
         <v>328</v>
@@ -27059,7 +27080,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E1145" t="s">
         <v>10</v>
@@ -27073,7 +27094,7 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E1146" t="s">
         <v>16</v>
@@ -27087,7 +27108,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E1147" t="s">
         <v>26</v>
@@ -27101,7 +27122,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E1148" t="s">
         <v>10</v>
@@ -27115,7 +27136,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E1149" t="s">
         <v>16</v>
@@ -27129,7 +27150,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E1150" t="s">
         <v>26</v>
@@ -27176,7 +27197,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E1154" t="s">
         <v>68</v>
@@ -27190,7 +27211,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E1155" t="s">
         <v>10</v>
@@ -27204,7 +27225,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E1156" t="s">
         <v>10</v>
@@ -27218,7 +27239,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E1157" t="s">
         <v>16</v>
@@ -27232,7 +27253,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E1158" t="s">
         <v>26</v>
@@ -27246,7 +27267,7 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B1159" t="s">
         <v>44</v>
@@ -27269,7 +27290,7 @@
     </row>
     <row r="1160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B1160" t="s">
         <v>44</v>
@@ -27292,7 +27313,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B1161" t="s">
         <v>24</v>
@@ -27315,7 +27336,7 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B1162" t="s">
         <v>24</v>
@@ -27371,7 +27392,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B1166" t="s">
         <v>24</v>
@@ -27394,13 +27415,13 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E1167" t="s">
         <v>10</v>
       </c>
       <c r="F1167" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1167" s="1">
         <v>46529</v>
@@ -27408,13 +27429,13 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E1168" t="s">
         <v>16</v>
       </c>
       <c r="F1168" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1168" s="1">
         <v>46529</v>
@@ -27422,13 +27443,13 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E1169" t="s">
         <v>26</v>
       </c>
       <c r="F1169" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1169" s="1">
         <v>46529</v>
@@ -27436,7 +27457,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E1170" t="s">
         <v>10</v>
@@ -27450,7 +27471,7 @@
     </row>
     <row r="1171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1171" t="s">
         <v>24</v>
@@ -27467,7 +27488,7 @@
     </row>
     <row r="1172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B1172" t="s">
         <v>24</v>
@@ -27490,7 +27511,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B1173" t="s">
         <v>24</v>
@@ -27521,7 +27542,7 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E1175" t="s">
         <v>10</v>
@@ -27535,7 +27556,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E1176" t="s">
         <v>10</v>
@@ -27549,10 +27570,10 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B1177" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E1177" t="s">
         <v>10</v>
@@ -27566,7 +27587,7 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B1178" t="s">
         <v>8</v>
@@ -27589,7 +27610,7 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B1179" t="s">
         <v>8</v>
@@ -27623,7 +27644,7 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B1181" t="s">
         <v>24</v>
@@ -27646,7 +27667,7 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B1182" t="s">
         <v>83</v>
@@ -27669,7 +27690,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E1183" t="s">
         <v>10</v>
@@ -27683,7 +27704,7 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1184" t="s">
         <v>10</v>
@@ -27697,7 +27718,7 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1185" t="s">
         <v>16</v>
@@ -27711,7 +27732,7 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1186" t="s">
         <v>26</v>
@@ -27725,7 +27746,7 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B1187" t="s">
         <v>24</v>
@@ -27748,7 +27769,7 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B1188" t="s">
         <v>24</v>
@@ -27771,13 +27792,13 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E1189" t="s">
         <v>10</v>
       </c>
       <c r="F1189" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1189" s="1">
         <v>46545</v>
@@ -27785,7 +27806,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E1190" t="s">
         <v>10</v>
@@ -27799,7 +27820,7 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E1191" t="s">
         <v>16</v>
@@ -27813,7 +27834,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E1192" t="s">
         <v>26</v>
@@ -27827,7 +27848,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1193" t="s">
         <v>10</v>
@@ -27841,7 +27862,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1194" t="s">
         <v>16</v>
@@ -27855,7 +27876,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1195" t="s">
         <v>26</v>
@@ -27869,13 +27890,13 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E1196" t="s">
         <v>10</v>
       </c>
       <c r="F1196" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1196" s="1">
         <v>46558</v>
@@ -27883,7 +27904,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E1197" t="s">
         <v>10</v>
@@ -27897,7 +27918,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B1198" t="s">
         <v>24</v>
@@ -27920,7 +27941,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B1199" t="s">
         <v>24</v>
@@ -27943,7 +27964,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B1200" t="s">
         <v>24</v>
@@ -27966,7 +27987,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B1201" t="s">
         <v>24</v>
@@ -27989,7 +28010,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B1202" t="s">
         <v>24</v>
@@ -28012,7 +28033,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B1203" t="s">
         <v>24</v>
@@ -28035,7 +28056,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B1204" t="s">
         <v>24</v>
@@ -28058,7 +28079,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B1205" t="s">
         <v>8</v>
@@ -28081,7 +28102,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B1206" t="s">
         <v>24</v>
@@ -28104,7 +28125,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B1207" t="s">
         <v>24</v>
@@ -28127,7 +28148,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B1208" t="s">
         <v>24</v>
@@ -28150,7 +28171,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B1209" t="s">
         <v>83</v>
@@ -28173,7 +28194,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B1210" t="s">
         <v>24</v>
@@ -28196,7 +28217,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B1211" t="s">
         <v>24</v>
@@ -28219,7 +28240,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B1212" t="s">
         <v>24</v>
@@ -28242,7 +28263,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B1213" t="s">
         <v>8</v>
@@ -28265,7 +28286,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B1214" t="s">
         <v>24</v>
@@ -28288,7 +28309,7 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B1215" t="s">
         <v>24</v>
@@ -28311,7 +28332,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B1216" t="s">
         <v>24</v>
@@ -28334,7 +28355,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1217" t="s">
         <v>24</v>
@@ -28357,7 +28378,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B1218" t="s">
         <v>24</v>
@@ -28380,7 +28401,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B1219" t="s">
         <v>24</v>
@@ -28403,7 +28424,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B1220" t="s">
         <v>24</v>
@@ -28426,7 +28447,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B1221" t="s">
         <v>24</v>
@@ -28446,7 +28467,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1222" t="s">
         <v>8</v>
@@ -28458,7 +28479,7 @@
         <v>59</v>
       </c>
       <c r="E1222" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1222" t="s">
         <v>11</v>
@@ -28469,7 +28490,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B1223" t="s">
         <v>8</v>
@@ -28481,7 +28502,7 @@
         <v>14</v>
       </c>
       <c r="E1223" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1223" t="s">
         <v>11</v>
@@ -28492,7 +28513,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B1224" t="s">
         <v>24</v>
@@ -28515,7 +28536,7 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B1225" t="s">
         <v>24</v>
@@ -28538,7 +28559,7 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B1226" t="s">
         <v>8</v>
@@ -28561,7 +28582,7 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B1227" t="s">
         <v>8</v>
@@ -28584,7 +28605,7 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B1228" t="s">
         <v>24</v>
@@ -28607,7 +28628,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B1229" t="s">
         <v>24</v>
@@ -28630,7 +28651,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E1230" t="s">
         <v>10</v>
@@ -28644,7 +28665,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B1231" t="s">
         <v>24</v>
@@ -28667,7 +28688,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D1232" t="s">
         <v>9</v>
@@ -28684,7 +28705,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D1233" t="s">
         <v>9</v>
@@ -28701,7 +28722,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E1234" t="s">
         <v>10</v>
@@ -28721,7 +28742,7 @@
         <v>10</v>
       </c>
       <c r="F1235" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1235" s="1">
         <v>46640</v>
@@ -28735,7 +28756,7 @@
         <v>16</v>
       </c>
       <c r="F1236" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1236" s="1">
         <v>46640</v>
@@ -28743,7 +28764,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D1237" t="s">
         <v>9</v>
@@ -28760,7 +28781,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B1238" t="s">
         <v>24</v>
@@ -28783,7 +28804,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B1239" t="s">
         <v>24</v>
@@ -28806,7 +28827,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B1240" t="s">
         <v>24</v>
@@ -28829,7 +28850,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B1241" t="s">
         <v>24</v>
@@ -28852,7 +28873,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B1242" t="s">
         <v>24</v>
@@ -28875,7 +28896,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B1243" t="s">
         <v>24</v>
@@ -28898,7 +28919,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B1244" t="s">
         <v>24</v>
@@ -28907,10 +28928,10 @@
         <v>3604011804</v>
       </c>
       <c r="D1244" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1244" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1244" t="s">
         <v>11</v>
@@ -28935,7 +28956,7 @@
         <v>10</v>
       </c>
       <c r="F1246" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G1246" s="1">
         <v>46654</v>
@@ -28943,7 +28964,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B1247" t="s">
         <v>24</v>
@@ -28966,7 +28987,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1248" t="s">
         <v>24</v>
@@ -28989,7 +29010,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1249" t="s">
         <v>24</v>
@@ -29012,7 +29033,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B1250" t="s">
         <v>24</v>
@@ -29035,7 +29056,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B1251" t="s">
         <v>24</v>
@@ -29055,7 +29076,7 @@
         <v>10</v>
       </c>
       <c r="F1252" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G1252" s="1">
         <v>45574</v>
@@ -29063,7 +29084,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B1253" t="s">
         <v>24</v>
@@ -29086,7 +29107,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B1254" t="s">
         <v>24</v>
@@ -29109,7 +29130,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B1255" t="s">
         <v>8</v>
@@ -29132,7 +29153,7 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B1256" t="s">
         <v>8</v>
@@ -29155,7 +29176,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B1257" t="s">
         <v>8</v>
@@ -29178,7 +29199,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B1258" t="s">
         <v>8</v>
@@ -29201,7 +29222,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B1259" t="s">
         <v>24</v>
@@ -29221,7 +29242,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B1260" t="s">
         <v>24</v>
@@ -29244,10 +29265,10 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B1261" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C1261" s="2">
         <v>632000000000</v>
@@ -29267,7 +29288,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B1262" t="s">
         <v>28</v>
@@ -29290,7 +29311,7 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B1263" t="s">
         <v>28</v>
@@ -29313,7 +29334,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1264" t="s">
         <v>24</v>
@@ -29336,7 +29357,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B1265" t="s">
         <v>8</v>
@@ -29356,19 +29377,19 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B1266" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D1266" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1266" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1266" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G1266" s="1">
         <v>46377</v>
@@ -29376,7 +29397,7 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B1267" t="s">
         <v>24</v>
@@ -29385,10 +29406,10 @@
         <v>3257017280</v>
       </c>
       <c r="D1267" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1267" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1267" t="s">
         <v>11</v>
@@ -29402,7 +29423,7 @@
         <v>10</v>
       </c>
       <c r="F1268" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G1268" s="1">
         <v>46719</v>
@@ -29410,7 +29431,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B1269" t="s">
         <v>24</v>
@@ -29419,10 +29440,10 @@
         <v>5030090040</v>
       </c>
       <c r="D1269" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1269" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1269" t="s">
         <v>11</v>
@@ -29433,7 +29454,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B1270" t="s">
         <v>24</v>
@@ -29442,10 +29463,10 @@
         <v>5834052005</v>
       </c>
       <c r="D1270" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1270" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1270" t="s">
         <v>11</v>
@@ -29453,7 +29474,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B1271" t="s">
         <v>24</v>
@@ -29462,10 +29483,10 @@
         <v>7733660353</v>
       </c>
       <c r="D1271" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1271" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1271" t="s">
         <v>11</v>
@@ -29476,7 +29497,7 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B1272" t="s">
         <v>24</v>
@@ -29485,10 +29506,10 @@
         <v>1644034949</v>
       </c>
       <c r="D1272" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1272" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1272" t="s">
         <v>11</v>
@@ -29499,7 +29520,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B1273" t="s">
         <v>24</v>
@@ -29508,10 +29529,10 @@
         <v>8610024374</v>
       </c>
       <c r="D1273" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1273" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F1273" t="s">
         <v>11</v>
@@ -29519,7 +29540,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B1274" t="s">
         <v>24</v>
@@ -29528,10 +29549,10 @@
         <v>5504168160</v>
       </c>
       <c r="D1274" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1274" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F1274" t="s">
         <v>11</v>
@@ -29539,7 +29560,7 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B1275" t="s">
         <v>8</v>
@@ -29548,10 +29569,10 @@
         <v>6317126596</v>
       </c>
       <c r="D1275" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1275" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F1275" t="s">
         <v>11</v>
@@ -29562,7 +29583,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1276" t="s">
         <v>24</v>
@@ -29571,10 +29592,10 @@
         <v>7017462729</v>
       </c>
       <c r="D1276" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1276" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1276" t="s">
         <v>11</v>
@@ -29585,7 +29606,7 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B1277" t="s">
         <v>24</v>
@@ -29594,10 +29615,10 @@
         <v>7811438750</v>
       </c>
       <c r="D1277" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1277" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1277" t="s">
         <v>11</v>
@@ -29608,7 +29629,7 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1278" t="s">
         <v>24</v>
@@ -29631,7 +29652,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1279" t="s">
         <v>24</v>
@@ -29654,7 +29675,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B1280" t="s">
         <v>24</v>
@@ -29663,10 +29684,10 @@
         <v>5505217893</v>
       </c>
       <c r="D1280" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1280" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1280" t="s">
         <v>11</v>
@@ -29677,7 +29698,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B1281" t="s">
         <v>24</v>
@@ -29685,13 +29706,13 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B1282" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C1282" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D1282" t="s">
         <v>11</v>
@@ -29702,16 +29723,16 @@
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B1283" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D1283" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E1283" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F1283" t="s">
         <v>131</v>
@@ -29719,13 +29740,13 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D1284" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E1284" t="s">
         <v>10</v>
       </c>
       <c r="F1284" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G1284" s="1">
         <v>46769</v>
@@ -29739,7 +29760,7 @@
         <v>10</v>
       </c>
       <c r="F1285" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G1285" s="1">
         <v>46766</v>
@@ -29747,7 +29768,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B1286" t="s">
         <v>24</v>
@@ -29770,7 +29791,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B1287" t="s">
         <v>24</v>
@@ -29793,7 +29814,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B1288" t="s">
         <v>24</v>
@@ -29816,7 +29837,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B1289" t="s">
         <v>24</v>
@@ -29839,7 +29860,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B1290" t="s">
         <v>8</v>
@@ -29862,7 +29883,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B1291" t="s">
         <v>24</v>
@@ -29885,7 +29906,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B1292" t="s">
         <v>24</v>
@@ -29908,7 +29929,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B1293" t="s">
         <v>24</v>
@@ -29931,7 +29952,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B1294" t="s">
         <v>28</v>
@@ -29954,7 +29975,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B1295" t="s">
         <v>24</v>
@@ -29977,7 +29998,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B1296" t="s">
         <v>24</v>
@@ -30000,7 +30021,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B1297" t="s">
         <v>24</v>
@@ -30012,7 +30033,7 @@
         <v>59</v>
       </c>
       <c r="E1297" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F1297" t="s">
         <v>11</v>
@@ -30020,7 +30041,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B1298" t="s">
         <v>24</v>
@@ -30043,7 +30064,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B1299" t="s">
         <v>24</v>
@@ -30066,7 +30087,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B1300" t="s">
         <v>24</v>
@@ -30089,7 +30110,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1301" t="s">
         <v>24</v>
@@ -30112,7 +30133,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1302" t="s">
         <v>24</v>
@@ -30135,7 +30156,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1303" t="s">
         <v>24</v>
@@ -30158,7 +30179,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B1304" t="s">
         <v>24</v>
@@ -30181,7 +30202,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B1305" t="s">
         <v>24</v>
@@ -30201,7 +30222,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B1306" t="s">
         <v>24</v>
@@ -30224,7 +30245,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B1307" t="s">
         <v>24</v>
@@ -30247,7 +30268,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B1308" t="s">
         <v>24</v>
@@ -30270,7 +30291,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B1309" t="s">
         <v>24</v>
@@ -30293,7 +30314,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B1310" t="s">
         <v>24</v>
@@ -30316,7 +30337,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B1311" t="s">
         <v>24</v>
@@ -30339,7 +30360,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B1312" t="s">
         <v>24</v>
@@ -30356,7 +30377,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B1313" t="s">
         <v>24</v>
@@ -30373,7 +30394,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B1314" t="s">
         <v>8</v>
@@ -30396,7 +30417,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B1315" t="s">
         <v>8</v>
@@ -30419,7 +30440,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B1316" t="s">
         <v>8</v>
@@ -30442,7 +30463,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D1317" t="s">
         <v>81</v>
@@ -30451,7 +30472,7 @@
         <v>10</v>
       </c>
       <c r="F1317" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1317" s="1">
         <v>46788</v>
@@ -30459,7 +30480,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D1318" t="s">
         <v>81</v>
@@ -30468,7 +30489,7 @@
         <v>16</v>
       </c>
       <c r="F1318" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1318" s="1">
         <v>46787</v>
@@ -30476,7 +30497,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D1319" t="s">
         <v>81</v>
@@ -30485,7 +30506,7 @@
         <v>26</v>
       </c>
       <c r="F1319" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1319" s="1">
         <v>46787</v>
@@ -30493,7 +30514,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B1320" t="s">
         <v>24</v>
@@ -30510,7 +30531,7 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B1321" t="s">
         <v>8</v>
@@ -30527,7 +30548,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B1322" t="s">
         <v>8</v>
@@ -30544,7 +30565,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B1323" t="s">
         <v>8</v>
@@ -30564,7 +30585,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B1324" t="s">
         <v>8</v>
@@ -30584,10 +30605,10 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B1325" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D1325" t="s">
         <v>59</v>
@@ -30604,10 +30625,10 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B1326" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D1326" t="s">
         <v>59</v>
@@ -30624,10 +30645,10 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B1327" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D1327" t="s">
         <v>59</v>
@@ -30644,7 +30665,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1328" t="s">
         <v>24</v>
@@ -30661,7 +30682,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1329" t="s">
         <v>24</v>
@@ -30678,7 +30699,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1330" t="s">
         <v>24</v>
@@ -30698,7 +30719,7 @@
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B1331" t="s">
         <v>24</v>
@@ -30718,7 +30739,7 @@
     </row>
     <row r="1332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B1332" t="s">
         <v>24</v>
@@ -30741,7 +30762,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B1333" t="s">
         <v>24</v>
@@ -30764,7 +30785,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B1334" t="s">
         <v>86</v>
@@ -30787,7 +30808,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B1335" t="s">
         <v>86</v>
@@ -30810,7 +30831,7 @@
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B1336" t="s">
         <v>86</v>
@@ -30839,7 +30860,7 @@
         <v>10</v>
       </c>
       <c r="F1337" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1337" s="1">
         <v>46857</v>
@@ -30853,7 +30874,7 @@
         <v>16</v>
       </c>
       <c r="F1338" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
@@ -30864,7 +30885,7 @@
         <v>26</v>
       </c>
       <c r="F1339" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
@@ -30875,7 +30896,7 @@
         <v>10</v>
       </c>
       <c r="F1340" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1340" s="1">
         <v>46857</v>
@@ -30889,7 +30910,7 @@
         <v>16</v>
       </c>
       <c r="F1341" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1341" s="1">
         <v>46899</v>
@@ -30903,7 +30924,7 @@
         <v>10</v>
       </c>
       <c r="F1342" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G1342" s="1">
         <v>46824</v>
@@ -30911,10 +30932,10 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B1343" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C1343">
         <v>6660003190</v>
@@ -30934,10 +30955,10 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B1344" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C1344">
         <v>6660003190</v>
@@ -30957,7 +30978,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B1345" t="s">
         <v>8</v>
@@ -30980,7 +31001,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B1346" t="s">
         <v>8</v>
@@ -31003,7 +31024,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B1347" t="s">
         <v>8</v>
@@ -31026,7 +31047,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B1348" t="s">
         <v>24</v>
@@ -31043,7 +31064,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B1349" t="s">
         <v>24</v>
@@ -31066,7 +31087,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B1350" t="s">
         <v>24</v>
@@ -31089,7 +31110,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B1351" t="s">
         <v>24</v>
@@ -31101,7 +31122,7 @@
         <v>81</v>
       </c>
       <c r="E1351" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1351" t="s">
         <v>11</v>
@@ -31112,7 +31133,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B1352" t="s">
         <v>24</v>
@@ -31124,7 +31145,7 @@
         <v>14</v>
       </c>
       <c r="E1352" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1352" t="s">
         <v>11</v>
@@ -31135,7 +31156,7 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B1353" t="s">
         <v>8</v>
@@ -31152,7 +31173,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B1354" t="s">
         <v>24</v>
@@ -31175,7 +31196,7 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1355" t="s">
         <v>24</v>
@@ -31198,7 +31219,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1356" t="s">
         <v>24</v>
@@ -31221,7 +31242,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1357" t="s">
         <v>24</v>
@@ -31244,7 +31265,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1358" t="s">
         <v>24</v>
@@ -31267,7 +31288,7 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1359" t="s">
         <v>24</v>
@@ -31290,7 +31311,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1360" t="s">
         <v>24</v>
@@ -31313,7 +31334,7 @@
     </row>
     <row r="1361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B1361" t="s">
         <v>24</v>
@@ -31333,10 +31354,10 @@
     </row>
     <row r="1362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B1362" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="D1362" t="s">
         <v>9</v>
@@ -31353,7 +31374,7 @@
     </row>
     <row r="1363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B1363" t="s">
         <v>24</v>
@@ -31373,10 +31394,10 @@
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B1364" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C1364">
         <v>7723320277</v>
@@ -31396,10 +31417,10 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B1365" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C1365" s="2">
         <v>584000000000</v>
@@ -31419,10 +31440,10 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B1366" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C1366" s="2">
         <v>584000000000</v>
@@ -31442,7 +31463,7 @@
     </row>
     <row r="1367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1367" t="s">
         <v>24</v>
@@ -31465,7 +31486,7 @@
     </row>
     <row r="1368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B1368" t="s">
         <v>24</v>
@@ -31488,7 +31509,7 @@
     </row>
     <row r="1369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B1369" t="s">
         <v>24</v>
@@ -31528,7 +31549,7 @@
     </row>
     <row r="1371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B1371" t="s">
         <v>24</v>
@@ -31551,7 +31572,7 @@
     </row>
     <row r="1372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B1372" t="s">
         <v>8</v>
@@ -31565,7 +31586,7 @@
     </row>
     <row r="1373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1373" t="s">
         <v>8</v>
@@ -31588,7 +31609,7 @@
     </row>
     <row r="1374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1374" t="s">
         <v>8</v>
@@ -31611,7 +31632,7 @@
     </row>
     <row r="1375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1375" t="s">
         <v>8</v>
@@ -31634,7 +31655,7 @@
     </row>
     <row r="1376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B1376" t="s">
         <v>8</v>
@@ -31657,7 +31678,7 @@
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B1377" t="s">
         <v>24</v>
